--- a/Selenium/Bugs/data/style/어쿠스틱한.xlsx
+++ b/Selenium/Bugs/data/style/어쿠스틱한.xlsx
@@ -73,7 +73,7 @@
     <t>Slow down (Feat. Meego, 김하온 (HAON))</t>
   </si>
   <si>
-    <t>It Ain't Easy</t>
+    <t xml:space="preserve">It Ain't Easy </t>
   </si>
   <si>
     <t>Middle Ground</t>
@@ -445,10 +445,10 @@
     <t>Solid Air</t>
   </si>
   <si>
-    <t>Light Flight</t>
-  </si>
-  <si>
-    <t>Gedanken (Remastered)</t>
+    <t xml:space="preserve">Light Flight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gedanken (Remastered) </t>
   </si>
   <si>
     <t>free love (dream edit)</t>
@@ -619,22 +619,22 @@
     <t>Mystic</t>
   </si>
   <si>
-    <t>When the Sea Lets Go</t>
+    <t xml:space="preserve">When the Sea Lets Go </t>
   </si>
   <si>
     <t>When She Cries</t>
   </si>
   <si>
-    <t>Evie</t>
-  </si>
-  <si>
-    <t>Hot Springs Sojourn</t>
+    <t xml:space="preserve">Evie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Springs Sojourn </t>
   </si>
   <si>
     <t>Heading West</t>
   </si>
   <si>
-    <t>Evening in Berkeley</t>
+    <t xml:space="preserve">Evening in Berkeley </t>
   </si>
   <si>
     <t>Conferring With The Moon (solo)</t>
@@ -652,7 +652,7 @@
     <t>花 (Hana)</t>
   </si>
   <si>
-    <t>Break of Dawn</t>
+    <t xml:space="preserve">Break of Dawn </t>
   </si>
   <si>
     <t>Lions In The Sky</t>
@@ -664,16 +664,16 @@
     <t>Brooke's Waltz</t>
   </si>
   <si>
-    <t>Ag Taisteal Na Blaírnan</t>
+    <t xml:space="preserve">Ag Taisteal Na Blaírnan </t>
   </si>
   <si>
     <t>Friends Are Lost</t>
   </si>
   <si>
-    <t>Life</t>
-  </si>
-  <si>
-    <t>Newton</t>
+    <t xml:space="preserve">Life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newton </t>
   </si>
   <si>
     <t>Grace</t>
@@ -751,7 +751,7 @@
     <t>Simple Things</t>
   </si>
   <si>
-    <t>Firefly</t>
+    <t xml:space="preserve">Firefly </t>
   </si>
   <si>
     <t>Favourite Ex</t>
